--- a/biology/Botanique/Clematis_patens_'Evipo016'/Clematis_patens_'Evipo016'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo016'/Clematis_patens_'Evipo016'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo016%27</t>
+          <t>Clematis_patens_'Evipo016'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite patens 'Evipo016' est un cultivar de clématite obtenu en 2010 par Raymond Evison et Mogens Olesen en Angleterre. Elle porte le nom commercial de clématite patens Rebecca 'Evipo016'[1].
-La clématite Rebecca a été commercialisée à partir de 2008 par les pépinières Guernsey clematis nursery de Raymond Evison[2].
-Cette clématite a été nommée en hommage à la fille ainée du pasteur Raiser[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Evipo016' est un cultivar de clématite obtenu en 2010 par Raymond Evison et Mogens Olesen en Angleterre. Elle porte le nom commercial de clématite patens Rebecca 'Evipo016'.
+La clématite Rebecca a été commercialisée à partir de 2008 par les pépinières Guernsey clematis nursery de Raymond Evison.
+Cette clématite a été nommée en hommage à la fille ainée du pasteur Raiser.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo016%27</t>
+          <t>Clematis_patens_'Evipo016'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,286 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui signifie que ce cultivar donnera deux floraisons par an, une première au printemps sur la pousse de l'année précédente puis une seconde à l'automne sur les pousses de l'été.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. en moyenne elles mesurent 10 cm[3].
-Tiges
-Les tiges de la clématite Rebecca apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
-Fleurs
-La clématite Rebecca dispose d'une fleur de taille moyenne rouge pur, elle peut atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et d'août à septembre pour la floraison d'automne.
-Bouton floral et pédoncule
-Le bouton floral de Rebecca est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 10 à 30 millimètres de couleur verte également.
-Sépales
-Au nombre de six, espacés à tangents, les uns elliptiques, les autres obovés, plats à convexes en coupe transversale, modérément réfléchis en coupe longitudinale, non tordus autour de l'axe longitudinal, à sommet cuspidé, à marge plate ou très faiblement ondulée; dessus unicolore, rouge-violet foncé, devenant plus clair vers le centre; dessous violet avec une barre centrale blanche[1].
-Étamines et stigmates
-Rebecca possède des  étamines de couleur blanche et des stigmates de couleur jaune crème.
-Parfum
-Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. en moyenne elles mesurent 10 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Rebecca apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Rebecca dispose d'une fleur de taille moyenne rouge pur, elle peut atteindre 18 cm. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et d'août à septembre pour la floraison d'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Rebecca est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 10 à 30 millimètres de couleur verte également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au nombre de six, espacés à tangents, les uns elliptiques, les autres obovés, plats à convexes en coupe transversale, modérément réfléchis en coupe longitudinale, non tordus autour de l'axe longitudinal, à sommet cuspidé, à marge plate ou très faiblement ondulée; dessus unicolore, rouge-violet foncé, devenant plus clair vers le centre; dessous violet avec une barre centrale blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rebecca possède des  étamines de couleur blanche et des stigmates de couleur jaune crème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
 			Clematis patens Rebecca 'Evipo016'
 			Clematis patens Rebecca 'Evipo016'
 			Sépale de clématite Rebecca 'Evipo016'
@@ -538,109 +813,328 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Obtention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Evipo016' est issue d'un croisement contrôlé entre la clématite patens 'Bees' Jubilee' (parent femelle) et un semis non identifié (parent mâle), réalisé au printemps 1999 à Guernesey, en Angleterre. Les graines ainsi obtenues ont été mises à germer en janvier 2000, et les semis ont été évalués en conditions contrôlées à l'été de la même année. À la suite de cette évaluation, une désignation aux fins de sélection a été attribuée à la nouvelle variété, et celle-ci a été multipliée par bouturage. 'Evipo016' a été sélectionnée dans le cadre d'un programme visant à créer une nouvelle variété à fleurs rouges, donnant une plante vigoureuse, compacte, à mode de ramification intéressant et à floraison abondante sur le bois de l'année[1].
-Au Canada les essais de 'Evipo016' ont été réalisés au champ et en serre de polyéthylène au printemps 2010, à Saint-Thomas, en Ontario. Ils ont porté sur 8 sujets de chaque variété, obtenus de plants à racines nues cultivés en récipients de 3,8 litres et transplantés au champ le 5 août 2009. Les observations et mesures ont été faites chez 10 parties de plantes de chaque variété, le 7 juin 2010 pour la variété candidate et le 21 juin 2010 pour la variété de référence[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo016' est issue d'un croisement contrôlé entre la clématite patens 'Bees' Jubilee' (parent femelle) et un semis non identifié (parent mâle), réalisé au printemps 1999 à Guernesey, en Angleterre. Les graines ainsi obtenues ont été mises à germer en janvier 2000, et les semis ont été évalués en conditions contrôlées à l'été de la même année. À la suite de cette évaluation, une désignation aux fins de sélection a été attribuée à la nouvelle variété, et celle-ci a été multipliée par bouturage. 'Evipo016' a été sélectionnée dans le cadre d'un programme visant à créer une nouvelle variété à fleurs rouges, donnant une plante vigoureuse, compacte, à mode de ramification intéressant et à floraison abondante sur le bois de l'année.
+Au Canada les essais de 'Evipo016' ont été réalisés au champ et en serre de polyéthylène au printemps 2010, à Saint-Thomas, en Ontario. Ils ont porté sur 8 sujets de chaque variété, obtenus de plants à racines nues cultivés en récipients de 3,8 litres et transplantés au champ le 5 août 2009. Les observations et mesures ont été faites chez 10 parties de plantes de chaque variété, le 7 juin 2010 pour la variété candidate et le 21 juin 2010 pour la variété de référence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">'Evipo016' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Rebecca' est protégé par une licence trademark.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Rebecca a été produite pour une culture en pot, mais elle s'adapte très bien en pleine terre également. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance entre 1 et 2 mètres[3]&gt;.
-Floraison
-Rebecca fleurit deux fois par an sur la pousse de l'année précédente du mois de mai au mois de juin pour la floraison printanière et en août et septembre pour la floraison sur la pousse de l'été de l'automne. Elle fait partie du groupe 2[3].
-Utilisations
-Rebecca est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Taille
-La clématite Rebecca a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille légère, c'est-à-dire une taille de 30 cm sur une tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite Rebecca est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Rebecca a été produite pour une culture en pot, mais elle s'adapte très bien en pleine terre également. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance entre 1 et 2 mètres&gt;.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rebecca fleurit deux fois par an sur la pousse de l'année précédente du mois de mai au mois de juin pour la floraison printanière et en août et septembre pour la floraison sur la pousse de l'été de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rebecca est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Rebecca a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille légère, c'est-à-dire une taille de 30 cm sur une tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo016'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo016%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Rebecca est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
